--- a/Results/20250819__Cacao__DR_Cibao_Noroeste/__Tmax__plus2C/20250819__Cacao__DR_Cibao_Noroeste_adjusted_canopy_crop_composition_cb_metrics.xlsx
+++ b/Results/20250819__Cacao__DR_Cibao_Noroeste/__Tmax__plus2C/20250819__Cacao__DR_Cibao_Noroeste_adjusted_canopy_crop_composition_cb_metrics.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="CB Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="Estimated Values" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>Composition</t>
   </si>
@@ -116,6 +117,36 @@
   </si>
   <si>
     <t>cacao_to_coffee</t>
+  </si>
+  <si>
+    <t>AAL % – Total (today)</t>
+  </si>
+  <si>
+    <t>AAL % – Total (future)</t>
+  </si>
+  <si>
+    <t>Avg. Revenue – Main (today)</t>
+  </si>
+  <si>
+    <t>AAL % – Main (today)</t>
+  </si>
+  <si>
+    <t>AAL % – Main (future)</t>
+  </si>
+  <si>
+    <t>Avg. Revenue – Main (future)</t>
+  </si>
+  <si>
+    <t>Avg. Revenue – Secondary (today)</t>
+  </si>
+  <si>
+    <t>AAL % – Secondary (today)</t>
+  </si>
+  <si>
+    <t>AAL % – Secondary (future)</t>
+  </si>
+  <si>
+    <t>Avg. Revenue – Secondary (future)</t>
   </si>
 </sst>
 </file>
@@ -184,12 +215,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,10 +608,10 @@
         <v>18800.6</v>
       </c>
       <c r="D2" s="2">
-        <v>1981175.01</v>
+        <v>1987864.15</v>
       </c>
       <c r="E2" s="2">
-        <v>635053.4399999999</v>
+        <v>641840.12</v>
       </c>
       <c r="F2" s="2">
         <v>1346022.74</v>
@@ -586,16 +620,16 @@
         <v>57992</v>
       </c>
       <c r="H2" s="2">
-        <v>57429.25</v>
+        <v>57787.04</v>
       </c>
       <c r="I2" s="2">
-        <v>57632.09</v>
+        <v>57940.36</v>
       </c>
       <c r="J2" s="2">
-        <v>57085.08</v>
+        <v>57447.81</v>
       </c>
       <c r="K2" s="2">
-        <v>1962374.41</v>
+        <v>1969063.55</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -630,37 +664,37 @@
         <v>9414.6</v>
       </c>
       <c r="D3" s="2">
-        <v>1259224.27</v>
+        <v>1275505.24</v>
       </c>
       <c r="E3" s="2">
-        <v>586909.71</v>
+        <v>603437.87</v>
       </c>
       <c r="F3" s="2">
         <v>671981.04</v>
       </c>
       <c r="G3" s="2">
-        <v>36973.59</v>
+        <v>37473.7</v>
       </c>
       <c r="H3" s="2">
-        <v>36406.15</v>
+        <v>36858.39</v>
       </c>
       <c r="I3" s="2">
-        <v>36606.68</v>
+        <v>37102.79</v>
       </c>
       <c r="J3" s="2">
-        <v>36087.36</v>
+        <v>36453.57</v>
       </c>
       <c r="K3" s="2">
-        <v>1249809.67</v>
+        <v>1266090.64</v>
       </c>
       <c r="L3" s="2">
-        <v>-712564.74</v>
+        <v>-702972.91</v>
       </c>
       <c r="M3" s="1">
-        <v>-75.69</v>
+        <v>-74.67</v>
       </c>
       <c r="N3" s="2">
-        <v>-48143.73</v>
+        <v>-38402.26</v>
       </c>
       <c r="O3" s="2">
         <v>-674041.7</v>
@@ -669,7 +703,7 @@
         <v>-9386</v>
       </c>
       <c r="Q3" s="2">
-        <v>-712799.4300000001</v>
+        <v>-703057.96</v>
       </c>
       <c r="R3" s="1">
         <v>24.1</v>
@@ -686,37 +720,37 @@
         <v>13230.1</v>
       </c>
       <c r="D4" s="2">
-        <v>1563774.26</v>
+        <v>1576179.53</v>
       </c>
       <c r="E4" s="2">
-        <v>613681.02</v>
+        <v>626323.04</v>
       </c>
       <c r="F4" s="2">
         <v>949826.62</v>
       </c>
       <c r="G4" s="2">
-        <v>45850.31</v>
+        <v>46168.16</v>
       </c>
       <c r="H4" s="2">
-        <v>45266.02</v>
+        <v>45663.52</v>
       </c>
       <c r="I4" s="2">
-        <v>45468.46</v>
+        <v>45901.39</v>
       </c>
       <c r="J4" s="2">
-        <v>44934.56</v>
+        <v>45253.41</v>
       </c>
       <c r="K4" s="2">
-        <v>1550544.16</v>
+        <v>1562949.43</v>
       </c>
       <c r="L4" s="2">
-        <v>-411830.24</v>
+        <v>-406114.12</v>
       </c>
       <c r="M4" s="1">
-        <v>-31.13</v>
+        <v>-30.7</v>
       </c>
       <c r="N4" s="2">
-        <v>-21372.42</v>
+        <v>-15517.08</v>
       </c>
       <c r="O4" s="2">
         <v>-396196.12</v>
@@ -725,7 +759,7 @@
         <v>-5570.5</v>
       </c>
       <c r="Q4" s="2">
-        <v>-411998.04</v>
+        <v>-406142.7</v>
       </c>
       <c r="R4" s="1">
         <v>28.96</v>
@@ -742,37 +776,37 @@
         <v>14093.3</v>
       </c>
       <c r="D5" s="2">
-        <v>1627370.1</v>
+        <v>1639091.01</v>
       </c>
       <c r="E5" s="2">
-        <v>618434.9300000001</v>
+        <v>630377.79</v>
       </c>
       <c r="F5" s="2">
         <v>1008692.79</v>
       </c>
       <c r="G5" s="2">
-        <v>47703.49</v>
+        <v>47977.01</v>
       </c>
       <c r="H5" s="2">
-        <v>47116.51</v>
+        <v>47514.5</v>
       </c>
       <c r="I5" s="2">
-        <v>47319.32</v>
+        <v>47745.31</v>
       </c>
       <c r="J5" s="2">
-        <v>46782.16</v>
+        <v>47107.35</v>
       </c>
       <c r="K5" s="2">
-        <v>1613276.8</v>
+        <v>1624997.71</v>
       </c>
       <c r="L5" s="2">
-        <v>-349097.61</v>
+        <v>-344065.84</v>
       </c>
       <c r="M5" s="1">
-        <v>-24.77</v>
+        <v>-24.41</v>
       </c>
       <c r="N5" s="2">
-        <v>-16618.51</v>
+        <v>-11462.33</v>
       </c>
       <c r="O5" s="2">
         <v>-337329.95</v>
@@ -781,7 +815,7 @@
         <v>-4707.3</v>
       </c>
       <c r="Q5" s="2">
-        <v>-349241.15</v>
+        <v>-344084.98</v>
       </c>
       <c r="R5" s="1">
         <v>30.27</v>
@@ -798,37 +832,37 @@
         <v>15033.2</v>
       </c>
       <c r="D6" s="2">
-        <v>1697824.85</v>
+        <v>1708830.15</v>
       </c>
       <c r="E6" s="2">
-        <v>622978.36</v>
+        <v>634183.62</v>
       </c>
       <c r="F6" s="2">
         <v>1074633.89</v>
       </c>
       <c r="G6" s="2">
-        <v>49755.69</v>
+        <v>49978.39</v>
       </c>
       <c r="H6" s="2">
-        <v>49167.29</v>
+        <v>49569.53</v>
       </c>
       <c r="I6" s="2">
-        <v>49370.4</v>
+        <v>49786.29</v>
       </c>
       <c r="J6" s="2">
-        <v>48830.05</v>
+        <v>49169.53</v>
       </c>
       <c r="K6" s="2">
-        <v>1682791.65</v>
+        <v>1693796.95</v>
       </c>
       <c r="L6" s="2">
-        <v>-279582.75</v>
+        <v>-275266.6</v>
       </c>
       <c r="M6" s="1">
-        <v>-18.6</v>
+        <v>-18.31</v>
       </c>
       <c r="N6" s="2">
-        <v>-12075.08</v>
+        <v>-7656.5</v>
       </c>
       <c r="O6" s="2">
         <v>-271388.85</v>
@@ -837,7 +871,7 @@
         <v>-3767.4</v>
       </c>
       <c r="Q6" s="2">
-        <v>-279696.52</v>
+        <v>-275277.95</v>
       </c>
       <c r="R6" s="1">
         <v>34.27</v>
@@ -854,37 +888,37 @@
         <v>15982.2</v>
       </c>
       <c r="D7" s="2">
-        <v>1771186.2</v>
+        <v>1781007.73</v>
       </c>
       <c r="E7" s="2">
-        <v>627062.39</v>
+        <v>637059.71</v>
       </c>
       <c r="F7" s="2">
         <v>1143940.74</v>
       </c>
       <c r="G7" s="2">
-        <v>51890.09</v>
+        <v>52051.61</v>
       </c>
       <c r="H7" s="2">
-        <v>51304.72</v>
+        <v>51694.86</v>
       </c>
       <c r="I7" s="2">
-        <v>51508.02</v>
+        <v>51890.99</v>
       </c>
       <c r="J7" s="2">
-        <v>50965.06</v>
+        <v>51307.07</v>
       </c>
       <c r="K7" s="2">
-        <v>1755204</v>
+        <v>1765025.53</v>
       </c>
       <c r="L7" s="2">
-        <v>-207170.41</v>
+        <v>-204038.02</v>
       </c>
       <c r="M7" s="1">
-        <v>-12.96</v>
+        <v>-12.77</v>
       </c>
       <c r="N7" s="2">
-        <v>-7991.05</v>
+        <v>-4780.41</v>
       </c>
       <c r="O7" s="2">
         <v>-202082</v>
@@ -893,7 +927,7 @@
         <v>-2818.4</v>
       </c>
       <c r="Q7" s="2">
-        <v>-207254.65</v>
+        <v>-204044.01</v>
       </c>
       <c r="R7" s="1">
         <v>38.42</v>
@@ -910,37 +944,37 @@
         <v>16945.5</v>
       </c>
       <c r="D8" s="2">
-        <v>1845132.6</v>
+        <v>1853781.28</v>
       </c>
       <c r="E8" s="2">
-        <v>630493.8</v>
+        <v>639292.85</v>
       </c>
       <c r="F8" s="2">
         <v>1214483.98</v>
       </c>
       <c r="G8" s="2">
-        <v>54040.67</v>
+        <v>54140.87</v>
       </c>
       <c r="H8" s="2">
-        <v>53459.91</v>
+        <v>53838.64</v>
       </c>
       <c r="I8" s="2">
-        <v>53663.19</v>
+        <v>54018.81</v>
       </c>
       <c r="J8" s="2">
-        <v>53118.37</v>
+        <v>53463.63</v>
       </c>
       <c r="K8" s="2">
-        <v>1828187.1</v>
+        <v>1836835.78</v>
       </c>
       <c r="L8" s="2">
-        <v>-134187.31</v>
+        <v>-132227.77</v>
       </c>
       <c r="M8" s="1">
-        <v>-7.92</v>
+        <v>-7.8</v>
       </c>
       <c r="N8" s="2">
-        <v>-4559.63</v>
+        <v>-2547.27</v>
       </c>
       <c r="O8" s="2">
         <v>-131538.76</v>
@@ -949,7 +983,7 @@
         <v>-1855.1</v>
       </c>
       <c r="Q8" s="2">
-        <v>-134243.29</v>
+        <v>-132230.93</v>
       </c>
       <c r="R8" s="1">
         <v>42.49</v>
@@ -966,37 +1000,37 @@
         <v>17865.9</v>
       </c>
       <c r="D9" s="2">
-        <v>1910819.79</v>
+        <v>1918291.29</v>
       </c>
       <c r="E9" s="2">
-        <v>633084.0699999999</v>
+        <v>640679.99</v>
       </c>
       <c r="F9" s="2">
         <v>1277608.85</v>
       </c>
       <c r="G9" s="2">
-        <v>55949.23</v>
+        <v>55992.13</v>
       </c>
       <c r="H9" s="2">
-        <v>55375.91</v>
+        <v>55739.63</v>
       </c>
       <c r="I9" s="2">
-        <v>55579.04</v>
+        <v>55908.82</v>
       </c>
       <c r="J9" s="2">
-        <v>55032.85</v>
+        <v>55380</v>
       </c>
       <c r="K9" s="2">
-        <v>1892953.89</v>
+        <v>1900425.39</v>
       </c>
       <c r="L9" s="2">
-        <v>-69420.52</v>
+        <v>-68638.14999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>-3.89</v>
+        <v>-3.84</v>
       </c>
       <c r="N9" s="2">
-        <v>-1969.37</v>
+        <v>-1160.13</v>
       </c>
       <c r="O9" s="2">
         <v>-68413.89</v>
@@ -1005,7 +1039,7 @@
         <v>-934.7</v>
       </c>
       <c r="Q9" s="2">
-        <v>-69448.56</v>
+        <v>-68639.33</v>
       </c>
       <c r="R9" s="1">
         <v>46.44</v>
@@ -1022,37 +1056,37 @@
         <v>19809.2</v>
       </c>
       <c r="D10" s="2">
-        <v>2051229.04</v>
+        <v>2056681.18</v>
       </c>
       <c r="E10" s="2">
-        <v>636718.3199999999</v>
+        <v>642243.88</v>
       </c>
       <c r="F10" s="2">
         <v>1414436.63</v>
       </c>
       <c r="G10" s="2">
-        <v>60019.6</v>
+        <v>59972.17</v>
       </c>
       <c r="H10" s="2">
-        <v>59479.18</v>
+        <v>59810.51</v>
       </c>
       <c r="I10" s="2">
-        <v>59681.11</v>
+        <v>59942.21</v>
       </c>
       <c r="J10" s="2">
-        <v>59134.62</v>
+        <v>59497.24</v>
       </c>
       <c r="K10" s="2">
-        <v>2031419.84</v>
+        <v>2036871.98</v>
       </c>
       <c r="L10" s="2">
-        <v>69045.44</v>
+        <v>67808.42999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>3.49</v>
+        <v>3.42</v>
       </c>
       <c r="N10" s="2">
-        <v>1664.89</v>
+        <v>403.76</v>
       </c>
       <c r="O10" s="2">
         <v>68413.89</v>
@@ -1061,7 +1095,7 @@
         <v>1008.6</v>
       </c>
       <c r="Q10" s="2">
-        <v>69070.17999999999</v>
+        <v>67809.05</v>
       </c>
       <c r="R10" s="1">
         <v>55.46</v>
@@ -1078,37 +1112,37 @@
         <v>20801.2</v>
       </c>
       <c r="D11" s="2">
-        <v>2115425.3</v>
+        <v>2119679.88</v>
       </c>
       <c r="E11" s="2">
-        <v>637812.03</v>
+        <v>642118.1</v>
       </c>
       <c r="F11" s="2">
         <v>1477561.5</v>
       </c>
       <c r="G11" s="2">
-        <v>61874.65</v>
+        <v>61785.23</v>
       </c>
       <c r="H11" s="2">
-        <v>61360.22</v>
+        <v>61662.63</v>
       </c>
       <c r="I11" s="2">
-        <v>61561.01</v>
+        <v>61773.77</v>
       </c>
       <c r="J11" s="2">
-        <v>61015.77</v>
+        <v>61377.43</v>
       </c>
       <c r="K11" s="2">
-        <v>2094624.1</v>
+        <v>2098878.68</v>
       </c>
       <c r="L11" s="2">
-        <v>132249.69</v>
+        <v>129815.14</v>
       </c>
       <c r="M11" s="1">
-        <v>6.36</v>
+        <v>6.24</v>
       </c>
       <c r="N11" s="2">
-        <v>2758.59</v>
+        <v>277.98</v>
       </c>
       <c r="O11" s="2">
         <v>131538.76</v>
@@ -1117,7 +1151,7 @@
         <v>2000.6</v>
       </c>
       <c r="Q11" s="2">
-        <v>132296.75</v>
+        <v>129816.14</v>
       </c>
       <c r="R11" s="1">
         <v>60.39</v>
@@ -1134,37 +1168,37 @@
         <v>21840.6</v>
       </c>
       <c r="D12" s="2">
-        <v>2186824.17</v>
+        <v>2189425.62</v>
       </c>
       <c r="E12" s="2">
-        <v>638685.99</v>
+        <v>641320.76</v>
       </c>
       <c r="F12" s="2">
         <v>1548104.74</v>
       </c>
       <c r="G12" s="2">
-        <v>63933.5</v>
+        <v>63798.59</v>
       </c>
       <c r="H12" s="2">
-        <v>63455.92</v>
+        <v>63707.99</v>
       </c>
       <c r="I12" s="2">
-        <v>63654.8</v>
+        <v>63795.34</v>
       </c>
       <c r="J12" s="2">
-        <v>63112.36</v>
+        <v>63457.32</v>
       </c>
       <c r="K12" s="2">
-        <v>2164983.57</v>
+        <v>2167585.02</v>
       </c>
       <c r="L12" s="2">
-        <v>202609.16</v>
+        <v>198521.47</v>
       </c>
       <c r="M12" s="1">
-        <v>9.279999999999999</v>
+        <v>9.09</v>
       </c>
       <c r="N12" s="2">
-        <v>3632.55</v>
+        <v>-519.36</v>
       </c>
       <c r="O12" s="2">
         <v>202082</v>
@@ -1173,7 +1207,7 @@
         <v>3040</v>
       </c>
       <c r="Q12" s="2">
-        <v>202674.56</v>
+        <v>198522.64</v>
       </c>
       <c r="R12" s="1">
         <v>65.48</v>
@@ -1190,37 +1224,37 @@
         <v>22864.6</v>
       </c>
       <c r="D13" s="2">
-        <v>2256582.37</v>
+        <v>2256891</v>
       </c>
       <c r="E13" s="2">
-        <v>639150.87</v>
+        <v>639479.36</v>
       </c>
       <c r="F13" s="2">
         <v>1617411.59</v>
       </c>
       <c r="G13" s="2">
-        <v>65935.57000000001</v>
+        <v>65749.11</v>
       </c>
       <c r="H13" s="2">
-        <v>65511.4</v>
+        <v>65683.97</v>
       </c>
       <c r="I13" s="2">
-        <v>65707.58</v>
+        <v>65747.77</v>
       </c>
       <c r="J13" s="2">
-        <v>65170.62</v>
+        <v>65475</v>
       </c>
       <c r="K13" s="2">
-        <v>2233717.77</v>
+        <v>2234026.4</v>
       </c>
       <c r="L13" s="2">
-        <v>271343.36</v>
+        <v>264962.85</v>
       </c>
       <c r="M13" s="1">
-        <v>11.87</v>
+        <v>11.59</v>
       </c>
       <c r="N13" s="2">
-        <v>4097.43</v>
+        <v>-2360.77</v>
       </c>
       <c r="O13" s="2">
         <v>271388.85</v>
@@ -1229,7 +1263,7 @@
         <v>4064</v>
       </c>
       <c r="Q13" s="2">
-        <v>271422.28</v>
+        <v>264964.08</v>
       </c>
       <c r="R13" s="1">
         <v>70.67</v>
@@ -1246,37 +1280,37 @@
         <v>23878.2</v>
       </c>
       <c r="D14" s="2">
-        <v>2322622.32</v>
+        <v>2320482.28</v>
       </c>
       <c r="E14" s="2">
-        <v>639260.33</v>
+        <v>637129.5699999999</v>
       </c>
       <c r="F14" s="2">
         <v>1683352.69</v>
       </c>
       <c r="G14" s="2">
-        <v>67825.89999999999</v>
+        <v>67586.63</v>
       </c>
       <c r="H14" s="2">
-        <v>67461.52</v>
+        <v>67547.32000000001</v>
       </c>
       <c r="I14" s="2">
-        <v>67654.22</v>
+        <v>67587.12</v>
       </c>
       <c r="J14" s="2">
-        <v>67124.92999999999</v>
+        <v>67380.39</v>
       </c>
       <c r="K14" s="2">
-        <v>2298744.12</v>
+        <v>2296604.08</v>
       </c>
       <c r="L14" s="2">
-        <v>336369.72</v>
+        <v>327540.53</v>
       </c>
       <c r="M14" s="1">
-        <v>14.09</v>
+        <v>13.72</v>
       </c>
       <c r="N14" s="2">
-        <v>4206.89</v>
+        <v>-4710.55</v>
       </c>
       <c r="O14" s="2">
         <v>337329.95</v>
@@ -1285,7 +1319,7 @@
         <v>5077.6</v>
       </c>
       <c r="Q14" s="2">
-        <v>336459.24</v>
+        <v>327541.8</v>
       </c>
       <c r="R14" s="1">
         <v>75.40000000000001</v>
@@ -1302,37 +1336,37 @@
         <v>24808.6</v>
       </c>
       <c r="D15" s="2">
-        <v>2381024.79</v>
+        <v>2376128.38</v>
       </c>
       <c r="E15" s="2">
-        <v>638800.83</v>
+        <v>633909.51</v>
       </c>
       <c r="F15" s="2">
         <v>1742218.86</v>
       </c>
       <c r="G15" s="2">
-        <v>69494.66</v>
+        <v>69199.17</v>
       </c>
       <c r="H15" s="2">
-        <v>69188.59</v>
+        <v>69174.00999999999</v>
       </c>
       <c r="I15" s="2">
-        <v>69370.95</v>
+        <v>69199.50999999999</v>
       </c>
       <c r="J15" s="2">
-        <v>68863.81</v>
+        <v>69043.50999999999</v>
       </c>
       <c r="K15" s="2">
-        <v>2356216.19</v>
+        <v>2351319.78</v>
       </c>
       <c r="L15" s="2">
-        <v>393841.78</v>
+        <v>382256.23</v>
       </c>
       <c r="M15" s="1">
-        <v>15.88</v>
+        <v>15.41</v>
       </c>
       <c r="N15" s="2">
-        <v>3747.4</v>
+        <v>-7930.61</v>
       </c>
       <c r="O15" s="2">
         <v>396196.12</v>
@@ -1341,7 +1375,7 @@
         <v>6008</v>
       </c>
       <c r="Q15" s="2">
-        <v>393935.52</v>
+        <v>382257.51</v>
       </c>
       <c r="R15" s="1">
         <v>78.22</v>
@@ -1358,37 +1392,37 @@
         <v>28925.4</v>
       </c>
       <c r="D16" s="2">
-        <v>2649613.07</v>
+        <v>2632619.68</v>
       </c>
       <c r="E16" s="2">
-        <v>629548.46</v>
+        <v>612555.24</v>
       </c>
       <c r="F16" s="2">
         <v>2020064.44</v>
       </c>
       <c r="G16" s="2">
-        <v>77200.25</v>
+        <v>76654.77</v>
       </c>
       <c r="H16" s="2">
-        <v>77105.19</v>
+        <v>76652.81</v>
       </c>
       <c r="I16" s="2">
-        <v>77193.92</v>
+        <v>76654.77</v>
       </c>
       <c r="J16" s="2">
-        <v>76876.75999999999</v>
+        <v>76624.63</v>
       </c>
       <c r="K16" s="2">
-        <v>2620687.67</v>
+        <v>2603694.28</v>
       </c>
       <c r="L16" s="2">
-        <v>658313.27</v>
+        <v>634630.73</v>
       </c>
       <c r="M16" s="1">
-        <v>22.76</v>
+        <v>21.94</v>
       </c>
       <c r="N16" s="2">
-        <v>-5504.98</v>
+        <v>-29284.88</v>
       </c>
       <c r="O16" s="2">
         <v>674041.7</v>
@@ -1397,7 +1431,7 @@
         <v>10124.8</v>
       </c>
       <c r="Q16" s="2">
-        <v>658411.92</v>
+        <v>634632.02</v>
       </c>
       <c r="R16" s="1">
         <v>90.12</v>
@@ -1414,10 +1448,10 @@
         <v>18800.6</v>
       </c>
       <c r="D17" s="2">
-        <v>1972021.24</v>
+        <v>1981747.2</v>
       </c>
       <c r="E17" s="2">
-        <v>624347.4</v>
+        <v>634818.8</v>
       </c>
       <c r="F17" s="2">
         <v>1346022.74</v>
@@ -1426,25 +1460,25 @@
         <v>58000.2</v>
       </c>
       <c r="H17" s="2">
-        <v>56932.77</v>
+        <v>57452.99</v>
       </c>
       <c r="I17" s="2">
-        <v>57228.45</v>
+        <v>57673.25</v>
       </c>
       <c r="J17" s="2">
-        <v>56613.03</v>
+        <v>57137.08</v>
       </c>
       <c r="K17" s="2">
-        <v>1953220.64</v>
+        <v>1962946.6</v>
       </c>
       <c r="L17" s="2">
-        <v>-9153.77</v>
+        <v>-6116.95</v>
       </c>
       <c r="M17" s="1">
-        <v>-0.49</v>
+        <v>-0.33</v>
       </c>
       <c r="N17" s="2">
-        <v>-10706.04</v>
+        <v>-7021.32</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -1453,10 +1487,939 @@
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>-10706.04</v>
+        <v>-7021.32</v>
       </c>
       <c r="R17" s="1">
         <v>50.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="25.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16" width="15.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40.20215277777778</v>
+      </c>
+      <c r="C2" s="2">
+        <v>18800.6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>57992</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.01607671634953326</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.3694493725771808</v>
+      </c>
+      <c r="G2" s="2">
+        <v>57940.35982824874</v>
+      </c>
+      <c r="H2" s="2">
+        <v>57787.03917823052</v>
+      </c>
+      <c r="I2" s="2">
+        <v>57447.80667451002</v>
+      </c>
+      <c r="J2" s="2">
+        <v>18800</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.04959153907139004</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.139633405026376</v>
+      </c>
+      <c r="M2" s="2">
+        <v>18594.970451892</v>
+      </c>
+      <c r="N2" s="2">
+        <v>39192</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>39192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20.16111111111111</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9414.600000000004</v>
+      </c>
+      <c r="D3" s="2">
+        <v>37473.70348304816</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.6771087970709881</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.307988115776158</v>
+      </c>
+      <c r="G3" s="2">
+        <v>37102.7889897702</v>
+      </c>
+      <c r="H3" s="2">
+        <v>36858.38623577908</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36453.57438139194</v>
+      </c>
+      <c r="J3" s="2">
+        <v>17907.70348304816</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.416919501220301</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4.829701495497014</v>
+      </c>
+      <c r="M3" s="2">
+        <v>17287.768625093</v>
+      </c>
+      <c r="N3" s="2">
+        <v>19566</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>19566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>28.25958333333334</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13230.10000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>46168.15665440178</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.2108060769010411</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.301550353716515</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45901.39140794829</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45663.51631548176</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45253.41349856453</v>
+      </c>
+      <c r="J4" s="2">
+        <v>18512.15665440179</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.5257371231110963</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3.245984881490724</v>
+      </c>
+      <c r="M4" s="2">
+        <v>18005.91864684568</v>
+      </c>
+      <c r="N4" s="2">
+        <v>27656</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>27656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30.13576388888889</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14093.29999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>47977.0078871274</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1490645603052454</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.111646221583646</v>
+      </c>
+      <c r="G5" s="2">
+        <v>47745.3091771424</v>
+      </c>
+      <c r="H5" s="2">
+        <v>47514.50057308176</v>
+      </c>
+      <c r="I5" s="2">
+        <v>47107.3466044946</v>
+      </c>
+      <c r="J5" s="2">
+        <v>18607.00788712739</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.3843536601284277</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.866310363500777</v>
+      </c>
+      <c r="M5" s="2">
+        <v>18143.4081449986</v>
+      </c>
+      <c r="N5" s="2">
+        <v>29370</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>29370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32.1375</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15033.20000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>49978.39257847982</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.09848493894447456</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.9157567102324692</v>
+      </c>
+      <c r="G6" s="2">
+        <v>49786.29428680844</v>
+      </c>
+      <c r="H6" s="2">
+        <v>49569.53061673902</v>
+      </c>
+      <c r="I6" s="2">
+        <v>49169.52729857076</v>
+      </c>
+      <c r="J6" s="2">
+        <v>18688.39257847981</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.2633784003072858</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.449009361194535</v>
+      </c>
+      <c r="M6" s="2">
+        <v>18278.85464974706</v>
+      </c>
+      <c r="N6" s="2">
+        <v>31290</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>31290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>34.21152777777778</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15982.20000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>52051.61024692946</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.06128083647558779</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.7462329174911922</v>
+      </c>
+      <c r="G7" s="2">
+        <v>51890.98655801667</v>
+      </c>
+      <c r="H7" s="2">
+        <v>51694.86304166949</v>
+      </c>
+      <c r="I7" s="2">
+        <v>51307.0745127133</v>
+      </c>
+      <c r="J7" s="2">
+        <v>18743.61024692946</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.1701788595585877</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2.0723128822551</v>
+      </c>
+      <c r="M7" s="2">
+        <v>18386.47388875958</v>
+      </c>
+      <c r="N7" s="2">
+        <v>33308</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>33308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>36.24652777777779</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16945.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>54140.87281032072</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.04178796226609607</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.5997831344153026</v>
+      </c>
+      <c r="G8" s="2">
+        <v>54018.81218500174</v>
+      </c>
+      <c r="H8" s="2">
+        <v>53838.64305822492</v>
+      </c>
+      <c r="I8" s="2">
+        <v>53463.63460634871</v>
+      </c>
+      <c r="J8" s="2">
+        <v>18778.87281032072</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.1204777716374846</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.729218932475415</v>
+      </c>
+      <c r="M8" s="2">
+        <v>18476.40494733845</v>
+      </c>
+      <c r="N8" s="2">
+        <v>35362</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>35362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>38.22208333333332</v>
+      </c>
+      <c r="C9" s="2">
+        <v>17865.9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>55992.1334012759</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.02625466700225232</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.4770935867752288</v>
+      </c>
+      <c r="G9" s="2">
+        <v>55908.82164044778</v>
+      </c>
+      <c r="H9" s="2">
+        <v>55739.63277869412</v>
+      </c>
+      <c r="I9" s="2">
+        <v>55380.00437818551</v>
+      </c>
+      <c r="J9" s="2">
+        <v>18792.1334012759</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.07822713822882815</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.421525017154151</v>
+      </c>
+      <c r="M9" s="2">
+        <v>18539.50144514221</v>
+      </c>
+      <c r="N9" s="2">
+        <v>37200</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42.18222222222223</v>
+      </c>
+      <c r="C10" s="2">
+        <v>19809.19999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>59972.1679654871</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.0100090129381105</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.2795438491060169</v>
+      </c>
+      <c r="G10" s="2">
+        <v>59942.20594317165</v>
+      </c>
+      <c r="H10" s="2">
+        <v>59810.50590003794</v>
+      </c>
+      <c r="I10" s="2">
+        <v>59497.23851317381</v>
+      </c>
+      <c r="J10" s="2">
+        <v>18788.1679654871</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.03194894819951298</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.8923089629122434</v>
+      </c>
+      <c r="M10" s="2">
+        <v>18626.47042014998</v>
+      </c>
+      <c r="N10" s="2">
+        <v>41184</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>41184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44.1577777777778</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20801.20000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>61785.22985645077</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.005372479171024265</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.2037884342215647</v>
+      </c>
+      <c r="G11" s="2">
+        <v>61773.77116501693</v>
+      </c>
+      <c r="H11" s="2">
+        <v>61662.63151598063</v>
+      </c>
+      <c r="I11" s="2">
+        <v>61377.43499990924</v>
+      </c>
+      <c r="J11" s="2">
+        <v>18763.22985645077</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.01769097660798563</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.6710526570742171</v>
+      </c>
+      <c r="M11" s="2">
+        <v>18640.61641103498</v>
+      </c>
+      <c r="N11" s="2">
+        <v>43022</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>43022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>46.19277777777779</v>
+      </c>
+      <c r="C12" s="2">
+        <v>21840.6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>63798.59210166261</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.002812005614198739</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.1448226132622486</v>
+      </c>
+      <c r="G12" s="2">
+        <v>63795.33603616124</v>
+      </c>
+      <c r="H12" s="2">
+        <v>63707.98878557779</v>
+      </c>
+      <c r="I12" s="2">
+        <v>63457.32291005709</v>
+      </c>
+      <c r="J12" s="2">
+        <v>18722.59210166261</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.009582113320298168</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.4934935707857751</v>
+      </c>
+      <c r="M12" s="2">
+        <v>18631.9826510479</v>
+      </c>
+      <c r="N12" s="2">
+        <v>45076</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1">
+        <v>48.26680555555556</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22864.6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>65749.11167495539</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.001841007414721847</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.1009084964593383</v>
+      </c>
+      <c r="G13" s="2">
+        <v>65747.76939147738</v>
+      </c>
+      <c r="H13" s="2">
+        <v>65683.97448176933</v>
+      </c>
+      <c r="I13" s="2">
+        <v>65474.99658137997</v>
+      </c>
+      <c r="J13" s="2">
+        <v>18655.11167495539</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.006488548780304049</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.3556475092863651</v>
+      </c>
+      <c r="M13" s="2">
+        <v>18589.97145429488</v>
+      </c>
+      <c r="N13" s="2">
+        <v>47094</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>47094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1">
+        <v>50.26854166666668</v>
+      </c>
+      <c r="C14" s="2">
+        <v>23878.2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>67586.63468132232</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.0009048161134821979</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.05907171592336568</v>
+      </c>
+      <c r="G14" s="2">
+        <v>67587.11500364142</v>
+      </c>
+      <c r="H14" s="2">
+        <v>67547.32127552833</v>
+      </c>
+      <c r="I14" s="2">
+        <v>67380.3878094816</v>
+      </c>
+      <c r="J14" s="2">
+        <v>18572.63468132232</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.003292665643027726</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.2149645730191639</v>
+      </c>
+      <c r="M14" s="2">
+        <v>18533.32033675244</v>
+      </c>
+      <c r="N14" s="2">
+        <v>49014</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>49014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1">
+        <v>52.14472222222221</v>
+      </c>
+      <c r="C15" s="2">
+        <v>24808.59999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>69199.16824374342</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.0004936695807156352</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.03684340329094128</v>
+      </c>
+      <c r="G15" s="2">
+        <v>69199.50985898715</v>
+      </c>
+      <c r="H15" s="2">
+        <v>69174.01440618029</v>
+      </c>
+      <c r="I15" s="2">
+        <v>69043.50968706512</v>
+      </c>
+      <c r="J15" s="2">
+        <v>18471.16824374343</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.001849451205357882</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.1380276996754397</v>
+      </c>
+      <c r="M15" s="2">
+        <v>18446.01406514288</v>
+      </c>
+      <c r="N15" s="2">
+        <v>50728</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>50728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <v>60.24319444444444</v>
+      </c>
+      <c r="C16" s="2">
+        <v>28925.39999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>76654.76954142495</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.002550325703242085</v>
+      </c>
+      <c r="G16" s="2">
+        <v>76654.76954142495</v>
+      </c>
+      <c r="H16" s="2">
+        <v>76652.81459513457</v>
+      </c>
+      <c r="I16" s="2">
+        <v>76624.62682721554</v>
+      </c>
+      <c r="J16" s="2">
+        <v>17836.76954142495</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.01096020378485963</v>
+      </c>
+      <c r="M16" s="2">
+        <v>17834.81459513457</v>
+      </c>
+      <c r="N16" s="2">
+        <v>58818</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>58818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>40.20215277777778</v>
+      </c>
+      <c r="C17" s="2">
+        <v>18800.6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>58000.2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.756249266029991</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.664271821608302</v>
+      </c>
+      <c r="G17" s="2">
+        <v>57673.25060664045</v>
+      </c>
+      <c r="H17" s="2">
+        <v>57452.99055080025</v>
+      </c>
+      <c r="I17" s="2">
+        <v>57137.07583513637</v>
+      </c>
+      <c r="J17" s="2">
+        <v>18808.2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>11.58341620567586</v>
+      </c>
+      <c r="L17" s="1">
+        <v>14.38355071233004</v>
+      </c>
+      <c r="M17" s="2">
+        <v>18212.54828436072</v>
+      </c>
+      <c r="N17" s="2">
+        <v>39192</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>39192</v>
       </c>
     </row>
   </sheetData>
